--- a/Doc/Repartition_heures.xlsx
+++ b/Doc/Repartition_heures.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -21,31 +21,1935 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Auteur</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Discussion sur le sujet du projet : 15 min
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Elaboration et relecture de la presentation du projet : 1h15</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Feedback du prof sur le choix du projet : 30min
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Elaboration des fonctionnalités : 1h
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Relectures des fonctionnalités et discussions sur les nécessités : 2h
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Elaboration du cahier des charges, finitions des fonctionnalités, discussion sur l'architecture et sur les fen</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">être à réaliser (meeting) : 4h45
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Elaboration des maquettes des fenêtres Dashboard, Budget et Budget-détails : 3h45</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Apprentissage JavaFX : 4h
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Terminaison des maquettes : 2h
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Organisation et finition des documents à rendre : 1h30</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Vérification des schéma : 1h
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Elaboration des fen</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">êtres : 2h
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Apprentissage JavaFX : 4h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Création fen</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">êtres : 4h
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Design : 1h
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Apprentissage JavaFX : 1h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Création fen</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>êtres : 4h</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Design : 1h</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Apprentissage JavaFX : 1h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Création fen</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>êtres : 4h</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Design : 1h</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Apprentissage JavaFX : 1h</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-- 3h sur modélisation BD
-- 2h sur schéma UML</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+apprentissage JavaFX : 2h
+Elaboration rapport : 1h
+Elaboration des fenêtres de budget (ajout/suppression/modification)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+apprentissage JavaFX : 2h
+Elaboration rapport : 1h
+Elaboration des fenêtres de budget (général) : 3h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+apprentissage JavaFX : 2h
+Elaboration rapport : 1h
+finalisation des fenêtres de budget (toutes)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+apprentissage JavaFX : 2h
+Elaboration rapport : 1h
+Elaboration des fenêtres de dettes (liste générale)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+design et esthétique des fenêtres : 1h
+élaboration du rapport : 1h
+élaboration du tableau de bord (graphiques) : 4h
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+design et esthétique des fenêtres : 1h
+élaboration du rapport : 1h
+élaboration du tableau de bord (graphiques) : 4h
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+design et esthétique des fenêtres : 1h
+élaboration du rapport : 1h
+élaboration du tableau de bord (finitions) : 4h
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+design et esthétique des fenêtres : 2h
+rédaction du manuel utilisateur 4h
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Préparation des dossiers, du git, des groupes whatsapp, choix du sujet, discussion, rédaction de la présentation du sujet : 5h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Gestion de l'équipe : 2h
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Rédaction et discussions autour du cahier des charges : 5h
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Discussion sur l'architecture : 2h
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Meeting : 4h30</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Rédaction des conventions de codage : 1h
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Modélisation des entités et méthodes de l'application : 2h30
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Suivi de l'équipe GUI et BDD : 1h
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mise en place du schéma UML: 5h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Etude et inégration d'un ORM : 3h
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Organisation et gestion : 1h
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">DB : 1h
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Discussion sur schémas et diagramme UML + choix entités : 3h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Etude et intégration d'un ORM : 3h
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Gestion équipe : 1h
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Logique métier : 3h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Etude et intégration d'un ORM : 3h
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Gestion équipe : 1h
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Logique métier : 3h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Logique métier : 5h
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gestion équipe : 1h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Logique métier : 5h
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gestion équipe : 1h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Logique métier : 5h
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gestion équipe : 1h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Logique métier : 5h
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gestion équipe : 1h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Logique métier : 5h
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gestion équipe : 1h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Logique métier : 5h
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gestion équipe : 1h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Logique métier : 5h
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gestion équipe : 1h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Logique métier : 5h
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gestion équipe : 1h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Finalisation rapport et guides : 7h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Discussion et relecture de la présentation du projet : 45min
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Feedback et discussion sur sujet de projet : 30min
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Discussion du choix de l'architecture : 1h
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Rédaction détaillée des fonctionnalités et discussion sur la nécessité du projet : 2h
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Elaboration des croquis des fen</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">êtres d'interface : 5h
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Elaboration du cahier des charges et discussion de groupe (meeting) : 4h30</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Organisation et finition des documents à rendre : 1h30</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Apprentissage JavaFX : 4h30</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Création fen</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>êtres : 4h</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Design : 1h</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Apprentissage JavaFX : 1h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Création fen</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>êtres : 4h</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Design : 1h</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Apprentissage JavaFX : 1h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Création fen</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>êtres : 4h</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Design : 1h</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Apprentissage JavaFX : 1h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Création fen</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>êtres : 4h</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Design : 1h</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Apprentissage JavaFX : 1h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">apprentissage JavaFX : 2h
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Elaboration rapport : 1h
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Elaboration des fenêtres de budget (ajout/suppression/modification)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+apprentissage JavaFX : 2h
+Elaboration rapport : 1h
+Elaboration des fenêtres de budget ( particulier)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+apprentissage JavaFX : 2h
+Elaboration rapport : 1h
+Finalisationn dees fenêtre de budget : 3h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+apprentissage JavaFX : 2h
+Elaboration rapport : 1h
+Elaboration des fenêtres des dettes ( ajout/modificaiton/suppresion) : 3h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Elaboration rapport : 1h
+Design : 1h
+Elaboration des fenêtres de dashbord 4h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Elaboration rapport : 1h
+Design : 1h
+Elaboration des fenêtres de dashbord 4h
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Elaboration rapport : 1h
+Design : 1h
+Elaboration des fenêtres de dashbord 4h
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Manuel d'utilisation : 6h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Discussion sur le sujet et sa description : 45min</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Explications sur l'architecture, tests, créations de croquis, meeting</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Recherche d'idées et corédaction, relecture et correction de la proposition de projet : 1h30</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Feedback du prof sur le projet : 30min
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Rédaction et recherche des fonctionnalités pour le cahier des charges : 1h
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Discussion autour des fonctionnalités : 15 min
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Relecture, correction des fonctionnalités pour CC : 1.5
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Meeting de l'équipe pour discussion autour du cahier des charges : 4h30
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ecriture du CC : 1h30</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Schémas UML / Relationnel et choix entités : 7h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Discussion du schéma UML/relationnel et du choix des entités: 5h
+Etude et intégration d'un ORM: 2h30</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Etude et intégration d'un ORM: 5h
+Logique métier: 2h
+Persistance DB: 3h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Etude et intégration d'un ORM: 5h
+Logique métier: 2h
+Persistance DB: 3h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Etude et intégration d'un ORM: 5h
+Logique métier: 2h
+Persistance DB: 3h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Logique métier: 5h
+Persistance DB: 2h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Logique métier: 5h
+Persistance DB: 2h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Logique métier: 5h
+Persistance DB: 2h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Logique métier: 5h
+Persistance DB: 2h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Logique métier: 5h
+Persistance DB: 2h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Logique métier: 5h
+Persistance DB: 2h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Logique métier: 5h
+Persistance DB: 2h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Finalisation du rapport: 8h</t>
         </r>
       </text>
     </comment>
@@ -54,32 +1958,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t xml:space="preserve">Contraintes </t>
   </si>
   <si>
-    <t>Développeur 2</t>
-  </si>
-  <si>
-    <t>Développeur 3</t>
-  </si>
-  <si>
-    <t>Développeur 4</t>
-  </si>
-  <si>
-    <t>Développeur 5</t>
-  </si>
-  <si>
-    <t>Développeur 6</t>
-  </si>
-  <si>
     <t>6 développeurs x 90h = 540h au total</t>
   </si>
   <si>
-    <t>Groupe 1B</t>
-  </si>
-  <si>
     <t>Répartition des heures par développeur et par semaine</t>
   </si>
   <si>
@@ -143,9 +2029,6 @@
     <t>Total [h]</t>
   </si>
   <si>
-    <t>Jean Ziegler</t>
-  </si>
-  <si>
     <t>90 heures de travail par développeur sur l'ensemble du semestre</t>
   </si>
   <si>
@@ -159,13 +2042,31 @@
   </si>
   <si>
     <t>30h / 5 = 6h de travail par semaine et par développeur</t>
+  </si>
+  <si>
+    <t>Bryan Curchod</t>
+  </si>
+  <si>
+    <t>Daniel Gonzalez Lopez</t>
+  </si>
+  <si>
+    <t>François Burgener</t>
+  </si>
+  <si>
+    <t>Guillaume Zaretti</t>
+  </si>
+  <si>
+    <t>Héléna Reymond</t>
+  </si>
+  <si>
+    <t>Groupe 2A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +2094,63 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="34"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -558,374 +2516,487 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="7" customWidth="1"/>
     <col min="2" max="17" width="5.33203125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="8.77734375" style="10" customWidth="1"/>
+    <col min="18" max="18" width="8.83203125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
     </row>
-    <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="B5" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1">
+        <v>6</v>
+      </c>
+      <c r="K5" s="1">
+        <v>6</v>
+      </c>
+      <c r="L5" s="1">
+        <v>6</v>
+      </c>
+      <c r="M5" s="1">
+        <v>6</v>
+      </c>
+      <c r="N5" s="1">
+        <v>6</v>
+      </c>
+      <c r="O5" s="1">
+        <v>6</v>
+      </c>
+      <c r="P5" s="1">
+        <v>6</v>
+      </c>
       <c r="Q5" s="14"/>
       <c r="R5" s="4">
         <f>SUM(B5:Q5)</f>
-        <v>5.5</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="C6" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1">
+        <v>6</v>
+      </c>
+      <c r="J6" s="1">
+        <v>6</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6</v>
+      </c>
+      <c r="L6" s="1">
+        <v>6</v>
+      </c>
+      <c r="M6" s="1">
+        <v>6</v>
+      </c>
+      <c r="N6" s="1">
+        <v>6</v>
+      </c>
+      <c r="O6" s="1">
+        <v>6</v>
+      </c>
+      <c r="P6" s="1">
+        <v>7</v>
+      </c>
       <c r="Q6" s="14"/>
       <c r="R6" s="4">
-        <f t="shared" ref="R6:R10" si="0">SUM(B6:Q6)</f>
-        <v>5</v>
+        <f t="shared" ref="R6:R9" si="0">SUM(B6:Q6)</f>
+        <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="C7" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1">
+        <v>7</v>
+      </c>
+      <c r="H7" s="1">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1">
+        <v>6</v>
+      </c>
+      <c r="J7" s="1">
+        <v>6</v>
+      </c>
+      <c r="K7" s="1">
+        <v>6</v>
+      </c>
+      <c r="L7" s="1">
+        <v>6</v>
+      </c>
+      <c r="M7" s="1">
+        <v>6</v>
+      </c>
+      <c r="N7" s="1">
+        <v>6</v>
+      </c>
+      <c r="O7" s="1">
+        <v>6</v>
+      </c>
+      <c r="P7" s="1">
+        <v>6</v>
+      </c>
       <c r="Q7" s="14"/>
       <c r="R7" s="4">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>96.25</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="C8" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1">
+        <v>7</v>
+      </c>
+      <c r="I8" s="1">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1">
+        <v>7</v>
+      </c>
+      <c r="L8" s="1">
+        <v>7</v>
+      </c>
+      <c r="M8" s="1">
+        <v>7</v>
+      </c>
+      <c r="N8" s="1">
+        <v>7</v>
+      </c>
+      <c r="O8" s="1">
+        <v>7</v>
+      </c>
+      <c r="P8" s="1">
+        <v>7</v>
+      </c>
       <c r="Q8" s="14"/>
       <c r="R8" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>105.25</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>9.25</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1">
+        <v>8</v>
+      </c>
+      <c r="I9" s="1">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1">
+        <v>7</v>
+      </c>
+      <c r="K9" s="1">
+        <v>7</v>
+      </c>
+      <c r="L9" s="1">
+        <v>7</v>
+      </c>
+      <c r="M9" s="1">
+        <v>7</v>
+      </c>
+      <c r="N9" s="1">
+        <v>7</v>
+      </c>
+      <c r="O9" s="1">
+        <v>7</v>
+      </c>
+      <c r="P9" s="1">
+        <v>8</v>
+      </c>
       <c r="Q9" s="14"/>
       <c r="R9" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>106.25</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4">
+        <f>SUM(B5:B9)</f>
+        <v>9.5</v>
+      </c>
+      <c r="C10" s="4">
+        <f>SUM(C5:C9)</f>
+        <v>62.75</v>
+      </c>
+      <c r="D10" s="4">
+        <f>SUM(D5:D9)</f>
+        <v>37</v>
+      </c>
+      <c r="E10" s="4">
+        <f>SUM(E5:E9)</f>
+        <v>36.5</v>
+      </c>
+      <c r="F10" s="4">
+        <f>SUM(F5:F9)</f>
+        <v>36</v>
+      </c>
+      <c r="G10" s="4">
+        <f>SUM(G5:G9)</f>
+        <v>36</v>
+      </c>
+      <c r="H10" s="4">
+        <f>SUM(H5:H9)</f>
+        <v>35</v>
+      </c>
+      <c r="I10" s="4">
+        <f>SUM(I5:I9)</f>
+        <v>32</v>
+      </c>
+      <c r="J10" s="4">
+        <f>SUM(J5:J9)</f>
+        <v>32</v>
+      </c>
+      <c r="K10" s="4">
+        <f>SUM(K5:K9)</f>
+        <v>32</v>
+      </c>
+      <c r="L10" s="4">
+        <f>SUM(L5:L9)</f>
+        <v>32</v>
+      </c>
+      <c r="M10" s="4">
+        <f>SUM(M5:M9)</f>
+        <v>32</v>
+      </c>
+      <c r="N10" s="4">
+        <f>SUM(N5:N9)</f>
+        <v>32</v>
+      </c>
+      <c r="O10" s="4">
+        <f>SUM(O5:O9)</f>
+        <v>32</v>
+      </c>
+      <c r="P10" s="4">
+        <f>SUM(P5:P9)</f>
+        <v>34</v>
+      </c>
+      <c r="Q10" s="4">
+        <f>SUM(Q5:Q9)</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="12">
+        <f>SUM(R5:R9)</f>
+        <v>510.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
     </row>
-    <row r="11" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="4">
-        <f>SUM(B5:B10)</f>
-        <v>34</v>
-      </c>
-      <c r="C11" s="4">
-        <f t="shared" ref="C11:Q11" si="1">SUM(C5:C10)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="12">
-        <f>SUM(R5:R10)</f>
-        <v>34</v>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
